--- a/Data/Results.xlsx
+++ b/Data/Results.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nickolaus Smith\Desktop\Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nickolaus Smith\Documents\GitHub\Final-Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D6E3BE-E3EC-4107-AB8E-70C9F39D5BE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B76474-F0A5-4C1C-91F7-E6D02F517090}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{488CE189-10F8-4C6D-9DA4-0A96B51FA1DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet8" sheetId="12" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId3"/>
+    <pivotCache cacheId="5" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>Model</t>
   </si>
@@ -111,13 +112,23 @@
   <si>
     <t>Sum of Safe %</t>
   </si>
+  <si>
+    <t>Sum of Safe Avg ROI</t>
+  </si>
+  <si>
+    <t>Sum of Safe Avg Home ROI</t>
+  </si>
+  <si>
+    <t>Sum of Safe Avg Road ROI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.000"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -148,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -158,17 +169,21 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -176,7 +191,7 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
+      <numFmt numFmtId="165" formatCode="0.000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -593,6 +608,56 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-E914-4252-AECF-95B6FC7AE802}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E914-4252-AECF-95B6FC7AE802}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-E914-4252-AECF-95B6FC7AE802}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-E914-4252-AECF-95B6FC7AE802}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-E914-4252-AECF-95B6FC7AE802}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -996,6 +1061,822 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Results.xlsx]Sheet8!PivotTable4</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet8!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Safe Avg ROI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet8!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Combo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Forest</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Forest 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SVR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Theshold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet8!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.6000000000000068E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11799999999999988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3000000000000012E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7616-4F00-A9CE-2752AE8395F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet8!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Safe Avg Home ROI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet8!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Combo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Forest</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Forest 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SVR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Theshold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet8!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.3000000000000012E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.1130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6000000000000068E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6999999999999864E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3000000000000012E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7616-4F00-A9CE-2752AE8395F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet8!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Safe Avg Road ROI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet8!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Combo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Forest</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Forest 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SVR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Theshold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet8!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32800000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3000000000000012E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7616-4F00-A9CE-2752AE8395F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="614409688"/>
+        <c:axId val="614410672"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="614409688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="614410672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="614410672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="614409688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1036,7 +1917,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1580,6 +3004,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB17DD71-8092-452D-89CD-2480E327DFDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Nickolaus Smith" refreshedDate="44266.821126388888" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="6" xr:uid="{A51D900B-A5C9-4639-8F57-DF1B8EC9D829}">
   <cacheSource type="worksheet">
@@ -1605,13 +3070,13 @@
     <cacheField name="Away Accuracy" numFmtId="9">
       <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0.53" maxValue="0.6"/>
     </cacheField>
-    <cacheField name="Avg ROI" numFmtId="167">
+    <cacheField name="Avg ROI" numFmtId="164">
       <sharedItems containsMixedTypes="1" containsNumber="1" minValue="-2.9000000000000026E-2" maxValue="7.6000000000000068E-2"/>
     </cacheField>
-    <cacheField name="Avg Home ROI" numFmtId="167">
+    <cacheField name="Avg Home ROI" numFmtId="164">
       <sharedItems containsMixedTypes="1" containsNumber="1" minValue="-0.1130000000000001" maxValue="1.3000000000000012E-2"/>
     </cacheField>
-    <cacheField name="Avg Road ROI" numFmtId="167">
+    <cacheField name="Avg Road ROI" numFmtId="164">
       <sharedItems containsMixedTypes="1" containsNumber="1" minValue="1.3000000000000012E-2" maxValue="0.15999999999999992"/>
     </cacheField>
     <cacheField name="Safe Accuracy" numFmtId="9">
@@ -1626,13 +3091,13 @@
     <cacheField name="Safe %" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5.8999999999999997E-2" maxValue="0.66400000000000003"/>
     </cacheField>
-    <cacheField name="Safe Avg ROI" numFmtId="167">
+    <cacheField name="Safe Avg ROI" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.3000000000000012E-2" maxValue="0.24399999999999999"/>
     </cacheField>
-    <cacheField name="Safe Avg Home ROI" numFmtId="167">
+    <cacheField name="Safe Avg Home ROI" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1.1000000000000001" maxValue="9.6999999999999864E-2"/>
     </cacheField>
-    <cacheField name="Safe Avg Road ROI" numFmtId="167">
+    <cacheField name="Safe Avg Road ROI" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.3000000000000012E-2" maxValue="0.32800000000000007"/>
     </cacheField>
   </cacheFields>
@@ -1746,7 +3211,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C01D0DD2-4B96-473E-80F4-2227F1B54953}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C01D0DD2-4B96-473E-80F4-2227F1B54953}" name="PivotTable4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A1:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField axis="axisRow" showAll="0">
@@ -1770,9 +3235,9 @@
     <pivotField numFmtId="9" showAll="0"/>
     <pivotField numFmtId="9" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="167" showAll="0"/>
-    <pivotField numFmtId="167" showAll="0"/>
-    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -1804,7 +3269,7 @@
     <dataField name="Sum of Safe %" fld="10" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="2">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1813,10 +3278,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -1886,6 +3351,123 @@
           </reference>
           <reference field="0" count="1" selected="0">
             <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A493EEA5-E6EB-41F4-94B7-30A2707E54C3}" name="PivotTable4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A1:D7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item h="1" x="0"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Sum of Safe Avg ROI" fld="11" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Safe Avg Home ROI" fld="12" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Safe Avg Road ROI" fld="13" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -2275,12 +3857,130 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8E6D2F-A93A-4A0E-821C-A5052D927EC1}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="7">
+        <v>7.6000000000000068E-2</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1.3000000000000012E-2</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.1389999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.11799999999999988</v>
+      </c>
+      <c r="C3" s="7">
+        <v>-0.1130000000000001</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.18099999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.18099999999999994</v>
+      </c>
+      <c r="C4" s="7">
+        <v>7.6000000000000068E-2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.20199999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="C5" s="7">
+        <v>9.6999999999999864E-2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.32800000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1.3000000000000012E-2</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1.3000000000000012E-2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1.3000000000000012E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.6319999999999999</v>
+      </c>
+      <c r="C7" s="7">
+        <v>8.5999999999999854E-2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.86299999999999988</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92397BC2-59EC-46F5-87B2-7269E947F7BB}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2381,8 +4081,7 @@
         <v>7.6000000000000068E-2</v>
       </c>
       <c r="M2" s="5">
-        <f>I2-((1-I2)*1.1)</f>
-        <v>-1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="N2" s="5">
         <f>J2-((1-J2)*1.1)</f>

--- a/Data/Results.xlsx
+++ b/Data/Results.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nickolaus Smith\Documents\GitHub\Final-Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B76474-F0A5-4C1C-91F7-E6D02F517090}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FEA983-426A-467C-A29A-EFA90B6F8F29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{488CE189-10F8-4C6D-9DA4-0A96B51FA1DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{488CE189-10F8-4C6D-9DA4-0A96B51FA1DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet8" sheetId="12" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>Model</t>
   </si>
@@ -113,22 +112,21 @@
     <t>Sum of Safe %</t>
   </si>
   <si>
-    <t>Sum of Safe Avg ROI</t>
+    <t>Home %</t>
   </si>
   <si>
-    <t>Sum of Safe Avg Home ROI</t>
+    <t>Road %</t>
   </si>
   <si>
-    <t>Sum of Safe Avg Road ROI</t>
+    <t>47^</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.000"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -175,15 +173,14 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -191,7 +188,7 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
+      <numFmt numFmtId="166" formatCode="0.000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1061,822 +1058,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Results.xlsx]Sheet8!PivotTable4</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet8!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sum of Safe Avg ROI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet8!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Combo</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Forest</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Forest 2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>SVR</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Theshold</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet8!$B$2:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>7.6000000000000068E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.11799999999999988</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.18099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.24399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.3000000000000012E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7616-4F00-A9CE-2752AE8395F5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet8!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sum of Safe Avg Home ROI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet8!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Combo</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Forest</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Forest 2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>SVR</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Theshold</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet8!$C$2:$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.3000000000000012E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.1130000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.6000000000000068E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.6999999999999864E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.3000000000000012E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7616-4F00-A9CE-2752AE8395F5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet8!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sum of Safe Avg Road ROI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet8!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Combo</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Forest</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Forest 2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>SVR</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Theshold</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet8!$D$2:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.1389999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.18099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.20199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.32800000000000007</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.3000000000000012E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7616-4F00-A9CE-2752AE8395F5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="614409688"/>
-        <c:axId val="614410672"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="614409688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="614410672"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="614410672"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="614409688"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1917,550 +1098,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3004,51 +1642,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB17DD71-8092-452D-89CD-2480E327DFDE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Nickolaus Smith" refreshedDate="44266.821126388888" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="6" xr:uid="{A51D900B-A5C9-4639-8F57-DF1B8EC9D829}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:N7" sheet="Sheet1"/>
+    <worksheetSource ref="A1:P7" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="Model" numFmtId="0">
@@ -3211,7 +1808,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C01D0DD2-4B96-473E-80F4-2227F1B54953}" name="PivotTable4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C01D0DD2-4B96-473E-80F4-2227F1B54953}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A1:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField axis="axisRow" showAll="0">
@@ -3269,7 +1866,7 @@
     <dataField name="Sum of Safe %" fld="10" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="3">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -3278,10 +1875,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -3351,123 +1948,6 @@
           </reference>
           <reference field="0" count="1" selected="0">
             <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A493EEA5-E6EB-41F4-94B7-30A2707E54C3}" name="PivotTable4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A1:D7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item h="1" x="0"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Sum of Safe Avg ROI" fld="11" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Safe Avg Home ROI" fld="12" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Safe Avg Road ROI" fld="13" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="0">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="3">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -3857,145 +2337,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8E6D2F-A93A-4A0E-821C-A5052D927EC1}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92397BC2-59EC-46F5-87B2-7269E947F7BB}">
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="7">
-        <v>7.6000000000000068E-2</v>
-      </c>
-      <c r="C2" s="7">
-        <v>1.3000000000000012E-2</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0.1389999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="7">
-        <v>0.11799999999999988</v>
-      </c>
-      <c r="C3" s="7">
-        <v>-0.1130000000000001</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.18099999999999994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0.18099999999999994</v>
-      </c>
-      <c r="C4" s="7">
-        <v>7.6000000000000068E-2</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.20199999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="C5" s="7">
-        <v>9.6999999999999864E-2</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.32800000000000007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1.3000000000000012E-2</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1.3000000000000012E-2</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1.3000000000000012E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="7">
-        <v>0.6319999999999999</v>
-      </c>
-      <c r="C7" s="7">
-        <v>8.5999999999999854E-2</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.86299999999999988</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92397BC2-59EC-46F5-87B2-7269E947F7BB}">
-  <dimension ref="A1:N7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4012,34 +2372,46 @@
         <v>13</v>
       </c>
       <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>19</v>
       </c>
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4056,39 +2428,51 @@
         <f>B2-((1-B2)*1.1)</f>
         <v>-8.0000000000000071E-3</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="H2" s="5">
         <f>C2-((1-C2)*1.1)</f>
         <v>-0.1130000000000001</v>
       </c>
-      <c r="G2" s="5">
+      <c r="I2" s="5">
         <f>D2-((1-D2)*1.1)</f>
         <v>9.6999999999999864E-2</v>
       </c>
-      <c r="H2" s="4">
+      <c r="J2" s="4">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I2" s="4">
+      <c r="K2" s="4">
         <v>0</v>
       </c>
-      <c r="J2" s="4">
+      <c r="L2" s="4">
         <v>0.57999999999999996</v>
       </c>
-      <c r="K2" s="6">
+      <c r="M2" s="6">
         <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="L2" s="5">
-        <f>H2-((1-H2)*1.1)</f>
-        <v>7.6000000000000068E-2</v>
-      </c>
-      <c r="M2" s="5">
-        <v>0</v>
       </c>
       <c r="N2" s="5">
         <f>J2-((1-J2)*1.1)</f>
+        <v>7.6000000000000068E-2</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <f>L2-((1-L2)*1.1)</f>
         <v>0.11799999999999988</v>
       </c>
+      <c r="Q2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0.53</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4105,40 +2489,52 @@
         <f t="shared" ref="E3:E7" si="0">B3-((1-B3)*1.1)</f>
         <v>7.6000000000000068E-2</v>
       </c>
-      <c r="F3" s="5">
-        <f t="shared" ref="F3:F7" si="1">C3-((1-C3)*1.1)</f>
+      <c r="F3" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:H7" si="1">C3-((1-C3)*1.1)</f>
         <v>-2.9000000000000026E-2</v>
       </c>
-      <c r="G3" s="5">
-        <f t="shared" ref="G3:G7" si="2">D3-((1-D3)*1.1)</f>
+      <c r="I3" s="5">
+        <f t="shared" ref="I3:I7" si="2">D3-((1-D3)*1.1)</f>
         <v>0.15999999999999992</v>
       </c>
-      <c r="H3" s="4">
+      <c r="J3" s="4">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I3" s="4">
+      <c r="K3" s="4">
         <v>0.47</v>
       </c>
-      <c r="J3" s="4">
+      <c r="L3" s="4">
         <v>0.61</v>
       </c>
-      <c r="K3" s="6">
+      <c r="M3" s="6">
         <v>0.28599999999999998</v>
       </c>
-      <c r="L3" s="5">
-        <f t="shared" ref="L3:L7" si="3">H3-((1-H3)*1.1)</f>
+      <c r="N3" s="5">
+        <f t="shared" ref="N3:N7" si="3">J3-((1-J3)*1.1)</f>
         <v>0.11799999999999988</v>
       </c>
-      <c r="M3" s="5">
-        <f t="shared" ref="M3:M7" si="4">I3-((1-I3)*1.1)</f>
+      <c r="O3" s="5">
+        <f t="shared" ref="O3:O7" si="4">K3-((1-K3)*1.1)</f>
         <v>-0.1130000000000001</v>
       </c>
-      <c r="N3" s="5">
-        <f t="shared" ref="N3:N7" si="5">J3-((1-J3)*1.1)</f>
+      <c r="P3" s="5">
+        <f t="shared" ref="P3:P7" si="5">L3-((1-L3)*1.1)</f>
         <v>0.18099999999999994</v>
       </c>
+      <c r="Q3" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0.79</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -4155,40 +2551,52 @@
         <f t="shared" si="0"/>
         <v>3.400000000000003E-2</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H4" s="5">
         <f t="shared" si="1"/>
         <v>-8.0000000000000071E-3</v>
       </c>
-      <c r="G4" s="5">
+      <c r="I4" s="5">
         <f t="shared" si="2"/>
         <v>7.6000000000000068E-2</v>
       </c>
-      <c r="H4" s="4">
+      <c r="J4" s="4">
         <v>0.61</v>
       </c>
-      <c r="I4" s="4">
+      <c r="K4" s="4">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J4" s="4">
+      <c r="L4" s="4">
         <v>0.62</v>
       </c>
-      <c r="K4" s="6">
+      <c r="M4" s="6">
         <v>0.23300000000000001</v>
       </c>
-      <c r="L4" s="5">
+      <c r="N4" s="5">
         <f t="shared" si="3"/>
         <v>0.18099999999999994</v>
       </c>
-      <c r="M4" s="5">
+      <c r="O4" s="5">
         <f t="shared" si="4"/>
         <v>7.6000000000000068E-2</v>
       </c>
-      <c r="N4" s="5">
+      <c r="P4" s="5">
         <f t="shared" si="5"/>
         <v>0.20199999999999996</v>
       </c>
+      <c r="Q4" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -4205,40 +2613,52 @@
         <f t="shared" si="0"/>
         <v>-2.9000000000000026E-2</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
+        <v>0.495</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.505</v>
+      </c>
+      <c r="H5" s="5">
         <f t="shared" si="1"/>
         <v>-9.2000000000000082E-2</v>
       </c>
-      <c r="G5" s="5">
+      <c r="I5" s="5">
         <f t="shared" si="2"/>
         <v>1.3000000000000012E-2</v>
       </c>
-      <c r="H5" s="4">
+      <c r="J5" s="4">
         <v>0.64</v>
       </c>
-      <c r="I5" s="4">
+      <c r="K5" s="4">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J5" s="4">
+      <c r="L5" s="4">
         <v>0.68</v>
       </c>
-      <c r="K5" s="6">
+      <c r="M5" s="6">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="L5" s="5">
+      <c r="N5" s="5">
         <f t="shared" si="3"/>
         <v>0.24399999999999999</v>
       </c>
-      <c r="M5" s="5">
+      <c r="O5" s="5">
         <f t="shared" si="4"/>
         <v>9.6999999999999864E-2</v>
       </c>
-      <c r="N5" s="5">
+      <c r="P5" s="5">
         <f t="shared" si="5"/>
         <v>0.32800000000000007</v>
       </c>
+      <c r="Q5" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0.67</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4254,38 +2674,46 @@
       <c r="E6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="4">
+      <c r="J6" s="4">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I6" s="4">
+      <c r="K6" s="4">
         <v>0.53</v>
       </c>
-      <c r="J6" s="4">
+      <c r="L6" s="4">
         <v>0.59</v>
       </c>
-      <c r="K6" s="6">
+      <c r="M6" s="6">
         <v>0.66400000000000003</v>
       </c>
-      <c r="L6" s="5">
+      <c r="N6" s="5">
         <f t="shared" si="3"/>
         <v>7.6000000000000068E-2</v>
       </c>
-      <c r="M6" s="5">
+      <c r="O6" s="5">
         <f t="shared" si="4"/>
         <v>1.3000000000000012E-2</v>
       </c>
-      <c r="N6" s="5">
+      <c r="P6" s="5">
         <f t="shared" si="5"/>
         <v>0.1389999999999999</v>
       </c>
+      <c r="Q6" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0.54</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -4302,38 +2730,42 @@
         <f t="shared" si="0"/>
         <v>1.3000000000000012E-2</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="5">
         <f t="shared" si="1"/>
         <v>1.3000000000000012E-2</v>
       </c>
-      <c r="G7" s="5">
+      <c r="I7" s="5">
         <f t="shared" si="2"/>
         <v>1.3000000000000012E-2</v>
       </c>
-      <c r="H7" s="4">
-        <v>0.53</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0.53</v>
-      </c>
       <c r="J7" s="4">
         <v>0.53</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="5">
+      <c r="N7" s="5">
         <f t="shared" si="3"/>
         <v>1.3000000000000012E-2</v>
       </c>
-      <c r="M7" s="5">
+      <c r="O7" s="5">
         <f t="shared" si="4"/>
         <v>1.3000000000000012E-2</v>
       </c>
-      <c r="N7" s="5">
+      <c r="P7" s="5">
         <f t="shared" si="5"/>
         <v>1.3000000000000012E-2</v>
       </c>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
